--- a/Reports/수치 종합.xlsx
+++ b/Reports/수치 종합.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bangh\Documents\GitHub\TEAM_Enter_Text_Here\데이터 정규화 작업_방형진\label별_data분석\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADRAIN\Documents\GitHub\TEAM_Enter_Text_Here\Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{375D6F74-41AF-48D3-A08B-4AE74F778BE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB402B02-A885-496C-AC79-BC2CC629D33D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="4" xr2:uid="{63E51442-0045-413A-AA69-4FE075ED83CA}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{63E51442-0045-413A-AA69-4FE075ED83CA}"/>
   </bookViews>
   <sheets>
     <sheet name="REAL" sheetId="1" r:id="rId1"/>
@@ -106,9 +106,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="183" formatCode="0.00_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,8 +132,30 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="나눔스퀘어 Bold"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="나눔스퀘어 Bold"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -158,6 +180,22 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -168,15 +206,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -198,15 +245,30 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="2" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="4" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="6" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="7" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="5">
+    <cellStyle name="40% - 강조색1" xfId="3" builtinId="31"/>
+    <cellStyle name="강조색1" xfId="2" builtinId="29"/>
+    <cellStyle name="강조색5" xfId="4" builtinId="45"/>
     <cellStyle name="백분율" xfId="1" builtinId="5"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="250">
+  <dxfs count="144">
     <dxf>
       <fill>
         <patternFill>
@@ -266,7 +328,42 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -280,7 +377,35 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -294,7 +419,35 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -308,7 +461,35 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -322,7 +503,35 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -336,7 +545,35 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -350,7 +587,35 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -364,7 +629,35 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -378,7 +671,35 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -392,714 +713,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1323,49 +937,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1421,49 +993,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1519,49 +1049,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1617,49 +1105,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1715,49 +1161,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1813,119 +1217,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1946,14 +1238,42 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
+          <bgColor theme="8" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2269,50 +1589,50 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABBE13E1-C0CE-4CEB-9117-C0F120B77AF0}">
   <dimension ref="A1:P74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K66" sqref="K65:K66"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="7.8984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.59765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="6.796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.75" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.19921875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.09765625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.796875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.8984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="9" t="s">
         <v>6</v>
       </c>
       <c r="J2" s="2">
@@ -2337,26 +1657,26 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="B3" s="3" t="s">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="10">
         <v>28.347226920000001</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="10">
         <v>-2.2471200000000001E-4</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="10">
         <v>3.1614941000000001E-2</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="10">
         <v>1.2274792539999999</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="10">
         <v>5.2993968499999999</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="10">
         <v>5.9441815929999997</v>
       </c>
       <c r="J3" s="3" t="s">
@@ -2381,26 +1701,26 @@
         <v>1.5526901034984175</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="B4" s="3" t="s">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="10">
         <v>72</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="10">
         <v>0.34509804999999999</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="10">
         <v>40.375</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="10">
         <v>381</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="10">
         <v>54.117649999999998</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="10">
         <v>96</v>
       </c>
       <c r="J4" s="3" t="s">
@@ -2425,26 +1745,26 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="B5" s="4">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B5" s="11">
         <v>0.95</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="10">
         <v>63</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="10">
         <v>0.10980392</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="10">
         <v>3.25</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="10">
         <v>13</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="10">
         <v>23.529411</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="10">
         <v>22</v>
       </c>
       <c r="J5" s="4">
@@ -2469,26 +1789,26 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="B6" s="4">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B6" s="11">
         <v>0.9</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="10">
         <v>58</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="10">
         <v>6.2745099999999998E-2</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="10">
         <v>1.5625</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="10">
         <v>5</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="10">
         <v>19.215686999999999</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="10">
         <v>20</v>
       </c>
       <c r="J6" s="4">
@@ -2513,26 +1833,26 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="B7" s="4">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B7" s="11">
         <v>0.85</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="10">
         <v>56</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="10">
         <v>4.7058823999999999E-2</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="10">
         <v>0.5625</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="10">
         <v>3</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="10">
         <v>16.078431999999999</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="10">
         <v>17</v>
       </c>
       <c r="J7" s="4">
@@ -2557,26 +1877,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="B8" s="3" t="s">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B8" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="10">
         <v>49</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="10">
         <v>1.5686275E-2</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="10">
         <v>0.125</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="10">
         <v>1</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="10">
         <v>10.196078</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="10">
         <v>13</v>
       </c>
       <c r="J8" s="3" t="s">
@@ -2601,26 +1921,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="B9" s="3" t="s">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B9" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="10">
         <v>32</v>
       </c>
-      <c r="D9" s="6">
-        <v>0</v>
-      </c>
-      <c r="E9" s="6">
-        <v>0</v>
-      </c>
-      <c r="F9" s="6">
-        <v>0</v>
-      </c>
-      <c r="G9" s="6">
-        <v>0</v>
-      </c>
-      <c r="H9" s="6">
+      <c r="D9" s="10">
+        <v>0</v>
+      </c>
+      <c r="E9" s="10">
+        <v>0</v>
+      </c>
+      <c r="F9" s="10">
+        <v>0</v>
+      </c>
+      <c r="G9" s="10">
+        <v>0</v>
+      </c>
+      <c r="H9" s="10">
         <v>0</v>
       </c>
       <c r="J9" s="3" t="s">
@@ -2645,26 +1965,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="B10" s="3" t="s">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B10" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="6">
-        <v>0</v>
-      </c>
-      <c r="D10" s="6">
+      <c r="C10" s="10">
+        <v>0</v>
+      </c>
+      <c r="D10" s="10">
         <v>-1.5686275E-2</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="10">
         <v>-0.1875</v>
       </c>
-      <c r="F10" s="6">
-        <v>0</v>
-      </c>
-      <c r="G10" s="6">
-        <v>0</v>
-      </c>
-      <c r="H10" s="6">
+      <c r="F10" s="10">
+        <v>0</v>
+      </c>
+      <c r="G10" s="10">
+        <v>0</v>
+      </c>
+      <c r="H10" s="10">
         <v>0</v>
       </c>
       <c r="J10" s="3" t="s">
@@ -2689,26 +2009,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="B11" s="4">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B11" s="11">
         <v>0.15</v>
       </c>
-      <c r="C11" s="6">
-        <v>0</v>
-      </c>
-      <c r="D11" s="6">
+      <c r="C11" s="10">
+        <v>0</v>
+      </c>
+      <c r="D11" s="10">
         <v>-1.5686275E-2</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="10">
         <v>-0.5</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="10">
         <v>-1</v>
       </c>
-      <c r="G11" s="6">
-        <v>0</v>
-      </c>
-      <c r="H11" s="6">
+      <c r="G11" s="10">
+        <v>0</v>
+      </c>
+      <c r="H11" s="10">
         <v>0</v>
       </c>
       <c r="J11" s="4">
@@ -2733,26 +2053,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="B12" s="4">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B12" s="11">
         <v>0.1</v>
       </c>
-      <c r="C12" s="6">
-        <v>0</v>
-      </c>
-      <c r="D12" s="6">
+      <c r="C12" s="10">
+        <v>0</v>
+      </c>
+      <c r="D12" s="10">
         <v>-3.1372549999999999E-2</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="10">
         <v>-1.0625</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="10">
         <v>-5</v>
       </c>
-      <c r="G12" s="6">
-        <v>0</v>
-      </c>
-      <c r="H12" s="6">
+      <c r="G12" s="10">
+        <v>0</v>
+      </c>
+      <c r="H12" s="10">
         <v>0</v>
       </c>
       <c r="J12" s="4">
@@ -2777,26 +2097,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="B13" s="4">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B13" s="11">
         <v>0.05</v>
       </c>
-      <c r="C13" s="6">
-        <v>0</v>
-      </c>
-      <c r="D13" s="6">
+      <c r="C13" s="10">
+        <v>0</v>
+      </c>
+      <c r="D13" s="10">
         <v>-0.14117647999999999</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="10">
         <v>-2.75</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="10">
         <v>-13</v>
       </c>
-      <c r="G13" s="6">
-        <v>0</v>
-      </c>
-      <c r="H13" s="6">
+      <c r="G13" s="10">
+        <v>0</v>
+      </c>
+      <c r="H13" s="10">
         <v>0</v>
       </c>
       <c r="J13" s="4">
@@ -2821,26 +2141,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="B14" s="3" t="s">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B14" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="6">
-        <v>0</v>
-      </c>
-      <c r="D14" s="6">
+      <c r="C14" s="10">
+        <v>0</v>
+      </c>
+      <c r="D14" s="10">
         <v>-0.4862745</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="10">
         <v>-35.4375</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="10">
         <v>-380</v>
       </c>
-      <c r="G14" s="6">
-        <v>0</v>
-      </c>
-      <c r="H14" s="6">
+      <c r="G14" s="10">
+        <v>0</v>
+      </c>
+      <c r="H14" s="10">
         <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
@@ -2865,10 +2185,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B15" s="1"/>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B17" s="2">
         <v>1</v>
       </c>
@@ -2912,7 +2232,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B18" s="3" t="s">
         <v>7</v>
       </c>
@@ -2956,7 +2276,7 @@
         <v>1.1141846252814409</v>
       </c>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B19" s="3" t="s">
         <v>8</v>
       </c>
@@ -3000,7 +2320,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B20" s="4">
         <v>0.95</v>
       </c>
@@ -3044,7 +2364,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B21" s="4">
         <v>0.9</v>
       </c>
@@ -3088,7 +2408,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B22" s="4">
         <v>0.85</v>
       </c>
@@ -3132,7 +2452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B23" s="3" t="s">
         <v>9</v>
       </c>
@@ -3176,7 +2496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B24" s="3" t="s">
         <v>10</v>
       </c>
@@ -3220,7 +2540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B25" s="3" t="s">
         <v>11</v>
       </c>
@@ -3264,7 +2584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B26" s="4">
         <v>0.15</v>
       </c>
@@ -3308,7 +2628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B27" s="4">
         <v>0.1</v>
       </c>
@@ -3352,7 +2672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B28" s="4">
         <v>0.05</v>
       </c>
@@ -3396,7 +2716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B29" s="3" t="s">
         <v>12</v>
       </c>
@@ -3440,7 +2760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B32" s="2">
         <v>3</v>
       </c>
@@ -3484,7 +2804,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B33" s="3" t="s">
         <v>7</v>
       </c>
@@ -3528,7 +2848,7 @@
         <v>1.6519267214150348</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B34" s="3" t="s">
         <v>8</v>
       </c>
@@ -3572,7 +2892,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B35" s="4">
         <v>0.95</v>
       </c>
@@ -3616,7 +2936,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B36" s="4">
         <v>0.9</v>
       </c>
@@ -3660,7 +2980,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B37" s="4">
         <v>0.85</v>
       </c>
@@ -3704,7 +3024,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B38" s="3" t="s">
         <v>9</v>
       </c>
@@ -3748,7 +3068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B39" s="3" t="s">
         <v>10</v>
       </c>
@@ -3792,7 +3112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B40" s="3" t="s">
         <v>11</v>
       </c>
@@ -3836,7 +3156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B41" s="4">
         <v>0.15</v>
       </c>
@@ -3880,7 +3200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B42" s="4">
         <v>0.1</v>
       </c>
@@ -3924,7 +3244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B43" s="4">
         <v>0.05</v>
       </c>
@@ -3968,7 +3288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B44" s="3" t="s">
         <v>12</v>
       </c>
@@ -4012,10 +3332,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B45" s="5"/>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B47" s="2">
         <v>5</v>
       </c>
@@ -4059,7 +3379,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B48" s="3" t="s">
         <v>7</v>
       </c>
@@ -4103,7 +3423,7 @@
         <v>0.1678082191780822</v>
       </c>
     </row>
-    <row r="49" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B49" s="3" t="s">
         <v>8</v>
       </c>
@@ -4147,7 +3467,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="50" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B50" s="4">
         <v>0.95</v>
       </c>
@@ -4191,7 +3511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B51" s="4">
         <v>0.9</v>
       </c>
@@ -4235,7 +3555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B52" s="4">
         <v>0.85</v>
       </c>
@@ -4279,7 +3599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B53" s="3" t="s">
         <v>9</v>
       </c>
@@ -4323,7 +3643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B54" s="3" t="s">
         <v>10</v>
       </c>
@@ -4367,7 +3687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B55" s="3" t="s">
         <v>11</v>
       </c>
@@ -4411,7 +3731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B56" s="4">
         <v>0.15</v>
       </c>
@@ -4455,7 +3775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B57" s="4">
         <v>0.1</v>
       </c>
@@ -4499,7 +3819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B58" s="4">
         <v>0.05</v>
       </c>
@@ -4543,7 +3863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B59" s="3" t="s">
         <v>12</v>
       </c>
@@ -4587,7 +3907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B62" s="2">
         <v>7</v>
       </c>
@@ -4610,7 +3930,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B63" s="3" t="s">
         <v>7</v>
       </c>
@@ -4633,7 +3953,7 @@
         <v>15.901108780341625</v>
       </c>
     </row>
-    <row r="64" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="64" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B64" s="3" t="s">
         <v>8</v>
       </c>
@@ -4656,7 +3976,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="65" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B65" s="4">
         <v>0.95</v>
       </c>
@@ -4679,7 +3999,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="66" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B66" s="4">
         <v>0.9</v>
       </c>
@@ -4702,7 +4022,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="67" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B67" s="4">
         <v>0.85</v>
       </c>
@@ -4725,7 +4045,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="68" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B68" s="3" t="s">
         <v>9</v>
       </c>
@@ -4748,7 +4068,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="69" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B69" s="3" t="s">
         <v>10</v>
       </c>
@@ -4771,7 +4091,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="70" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B70" s="3" t="s">
         <v>11</v>
       </c>
@@ -4794,7 +4114,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="71" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B71" s="4">
         <v>0.15</v>
       </c>
@@ -4817,7 +4137,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="72" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B72" s="4">
         <v>0.1</v>
       </c>
@@ -4840,7 +4160,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="73" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B73" s="4">
         <v>0.05</v>
       </c>
@@ -4863,7 +4183,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="74" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B74" s="3" t="s">
         <v>12</v>
       </c>
@@ -4901,28 +4221,26 @@
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="7.796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.09765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.8984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.796875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.69921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="7.75" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.09765625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.796875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.8984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
@@ -4966,7 +4284,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
@@ -5010,7 +4328,7 @@
         <v>1.3617649861812637</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
@@ -5054,7 +4372,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B5" s="4">
         <v>0.95</v>
       </c>
@@ -5098,7 +4416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B6" s="4">
         <v>0.9</v>
       </c>
@@ -5142,7 +4460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B7" s="4">
         <v>0.85</v>
       </c>
@@ -5186,7 +4504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
@@ -5230,7 +4548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
         <v>10</v>
       </c>
@@ -5274,7 +4592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
         <v>11</v>
       </c>
@@ -5318,7 +4636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B11" s="4">
         <v>0.15</v>
       </c>
@@ -5362,7 +4680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B12" s="4">
         <v>0.1</v>
       </c>
@@ -5406,7 +4724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B13" s="4">
         <v>0.05</v>
       </c>
@@ -5450,7 +4768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
         <v>12</v>
       </c>
@@ -5494,10 +4812,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B15" s="1"/>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B17" s="2">
         <v>1</v>
       </c>
@@ -5541,7 +4859,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B18" s="3" t="s">
         <v>7</v>
       </c>
@@ -5585,7 +4903,7 @@
         <v>0.2337129840546697</v>
       </c>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B19" s="3" t="s">
         <v>8</v>
       </c>
@@ -5629,7 +4947,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B20" s="4">
         <v>0.95</v>
       </c>
@@ -5673,7 +4991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B21" s="4">
         <v>0.9</v>
       </c>
@@ -5717,7 +5035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B22" s="4">
         <v>0.85</v>
       </c>
@@ -5761,7 +5079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B23" s="3" t="s">
         <v>9</v>
       </c>
@@ -5805,7 +5123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B24" s="3" t="s">
         <v>10</v>
       </c>
@@ -5849,7 +5167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B25" s="3" t="s">
         <v>11</v>
       </c>
@@ -5893,7 +5211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B26" s="4">
         <v>0.15</v>
       </c>
@@ -5937,7 +5255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B27" s="4">
         <v>0.1</v>
       </c>
@@ -5981,7 +5299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B28" s="4">
         <v>0.05</v>
       </c>
@@ -6025,7 +5343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B29" s="3" t="s">
         <v>12</v>
       </c>
@@ -6069,7 +5387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B32" s="2">
         <v>3</v>
       </c>
@@ -6113,7 +5431,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B33" s="3" t="s">
         <v>7</v>
       </c>
@@ -6157,7 +5475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B34" s="3" t="s">
         <v>8</v>
       </c>
@@ -6201,7 +5519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B35" s="4">
         <v>0.95</v>
       </c>
@@ -6245,7 +5563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B36" s="4">
         <v>0.9</v>
       </c>
@@ -6289,7 +5607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B37" s="4">
         <v>0.85</v>
       </c>
@@ -6333,7 +5651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B38" s="3" t="s">
         <v>9</v>
       </c>
@@ -6377,7 +5695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B39" s="3" t="s">
         <v>10</v>
       </c>
@@ -6421,7 +5739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B40" s="3" t="s">
         <v>11</v>
       </c>
@@ -6465,7 +5783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B41" s="4">
         <v>0.15</v>
       </c>
@@ -6509,7 +5827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B42" s="4">
         <v>0.1</v>
       </c>
@@ -6553,7 +5871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B43" s="4">
         <v>0.05</v>
       </c>
@@ -6597,7 +5915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B44" s="3" t="s">
         <v>12</v>
       </c>
@@ -6641,10 +5959,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B45" s="5"/>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B47" s="2">
         <v>5</v>
       </c>
@@ -6688,7 +6006,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B48" s="3" t="s">
         <v>7</v>
       </c>
@@ -6732,7 +6050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B49" s="3" t="s">
         <v>8</v>
       </c>
@@ -6776,7 +6094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B50" s="4">
         <v>0.95</v>
       </c>
@@ -6820,7 +6138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B51" s="4">
         <v>0.9</v>
       </c>
@@ -6864,7 +6182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B52" s="4">
         <v>0.85</v>
       </c>
@@ -6908,7 +6226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B53" s="3" t="s">
         <v>9</v>
       </c>
@@ -6952,7 +6270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B54" s="3" t="s">
         <v>10</v>
       </c>
@@ -6996,7 +6314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B55" s="3" t="s">
         <v>11</v>
       </c>
@@ -7040,7 +6358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B56" s="4">
         <v>0.15</v>
       </c>
@@ -7084,7 +6402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B57" s="4">
         <v>0.1</v>
       </c>
@@ -7128,7 +6446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B58" s="4">
         <v>0.05</v>
       </c>
@@ -7172,7 +6490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B59" s="3" t="s">
         <v>12</v>
       </c>
@@ -7216,7 +6534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B62" s="2">
         <v>7</v>
       </c>
@@ -7239,7 +6557,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B63" s="3" t="s">
         <v>7</v>
       </c>
@@ -7262,7 +6580,7 @@
         <v>3.6983050847457628</v>
       </c>
     </row>
-    <row r="64" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="64" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B64" s="3" t="s">
         <v>8</v>
       </c>
@@ -7285,7 +6603,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="65" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B65" s="4">
         <v>0.95</v>
       </c>
@@ -7308,7 +6626,7 @@
         <v>42.549999999999955</v>
       </c>
     </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="66" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B66" s="4">
         <v>0.9</v>
       </c>
@@ -7331,7 +6649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="67" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B67" s="4">
         <v>0.85</v>
       </c>
@@ -7354,7 +6672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="68" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B68" s="3" t="s">
         <v>9</v>
       </c>
@@ -7377,7 +6695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="69" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B69" s="3" t="s">
         <v>10</v>
       </c>
@@ -7400,7 +6718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="70" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B70" s="3" t="s">
         <v>11</v>
       </c>
@@ -7423,7 +6741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="71" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B71" s="4">
         <v>0.15</v>
       </c>
@@ -7446,7 +6764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="72" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B72" s="4">
         <v>0.1</v>
       </c>
@@ -7469,7 +6787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="73" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B73" s="4">
         <v>0.05</v>
       </c>
@@ -7492,7 +6810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="74" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B74" s="3" t="s">
         <v>12</v>
       </c>
@@ -7525,50 +6843,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50DE7EF7-A362-46F8-8414-02DB227E7F2C}">
   <dimension ref="A1:P74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E63" sqref="E63"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="7.796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.69921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.09765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="6.796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.796875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="7.75" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.09765625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.796875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.8984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="9" t="s">
         <v>6</v>
       </c>
       <c r="J2" s="2">
@@ -7593,26 +6909,26 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="B3" s="3" t="s">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="10">
         <v>56.068721373258327</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="10">
         <v>1.5939251440792242E-3</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="10">
         <v>-6.5300918462792817E-2</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="10">
         <v>0.31862509112416271</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="10">
         <v>18.443829690659257</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="10">
         <v>2.0762829594377123</v>
       </c>
       <c r="J3" s="3" t="s">
@@ -7637,26 +6953,26 @@
         <v>1.4979305600248554</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="B4" s="3" t="s">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="10">
         <v>115</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="10">
         <v>6.8520209999999997</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="10">
         <v>81.968000000000004</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="10">
         <v>365</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="10">
         <v>100</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="10">
         <v>100</v>
       </c>
       <c r="J4" s="3" t="s">
@@ -7681,26 +6997,26 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="B5" s="4">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B5" s="11">
         <v>0.95</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="10">
         <v>93</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="10">
         <v>0.52225495000000066</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="10">
         <v>6.5369000000000002</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="10">
         <v>79</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="10">
         <v>60</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="10">
         <v>19</v>
       </c>
       <c r="J5" s="4">
@@ -7725,26 +7041,26 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="B6" s="4">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B6" s="11">
         <v>0.9</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="10">
         <v>86</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="10">
         <v>0.27889449999999999</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="10">
         <v>3.8488000000000002</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="10">
         <v>24</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="10">
         <v>50</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="10">
         <v>1</v>
       </c>
       <c r="J6" s="4">
@@ -7769,26 +7085,26 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="B7" s="4">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B7" s="11">
         <v>0.85</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="10">
         <v>82</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="10">
         <v>0.16203540000000002</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="10">
         <v>2.5712000000000002</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="10">
         <v>15</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="10">
         <v>44</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="10">
         <v>0</v>
       </c>
       <c r="J7" s="4">
@@ -7813,26 +7129,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="B8" s="3" t="s">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B8" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="10">
         <v>74</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="10">
         <v>5.5021E-2</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="10">
         <v>1.1888000000000001</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="10">
         <v>8</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="10">
         <v>33</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="10">
         <v>0</v>
       </c>
       <c r="J8" s="3" t="s">
@@ -7857,26 +7173,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="B9" s="3" t="s">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B9" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="10">
         <v>58</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="10">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="E9" s="6">
-        <v>0</v>
-      </c>
-      <c r="F9" s="6">
-        <v>0</v>
-      </c>
-      <c r="G9" s="6">
+      <c r="E9" s="10">
+        <v>0</v>
+      </c>
+      <c r="F9" s="10">
+        <v>0</v>
+      </c>
+      <c r="G9" s="10">
         <v>11</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="10">
         <v>0</v>
       </c>
       <c r="J9" s="3" t="s">
@@ -7901,26 +7217,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="B10" s="3" t="s">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B10" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="10">
         <v>41</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="10">
         <v>-5.9164000000000001E-2</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="10">
         <v>-1.262175</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="10">
         <v>-8</v>
       </c>
-      <c r="G10" s="6">
-        <v>0</v>
-      </c>
-      <c r="H10" s="6">
+      <c r="G10" s="10">
+        <v>0</v>
+      </c>
+      <c r="H10" s="10">
         <v>0</v>
       </c>
       <c r="J10" s="3" t="s">
@@ -7945,26 +7261,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="B11" s="4">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B11" s="11">
         <v>0.15</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="10">
         <v>32</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="10">
         <v>-0.16334099999999999</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="10">
         <v>-2.7692999999999999</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="10">
         <v>-16</v>
       </c>
-      <c r="G11" s="6">
-        <v>0</v>
-      </c>
-      <c r="H11" s="6">
+      <c r="G11" s="10">
+        <v>0</v>
+      </c>
+      <c r="H11" s="10">
         <v>0</v>
       </c>
       <c r="J11" s="4">
@@ -7989,26 +7305,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="B12" s="4">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B12" s="11">
         <v>0.1</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="10">
         <v>23</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="10">
         <v>-0.27570059999999991</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="10">
         <v>-4.0818000000000003</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="10">
         <v>-27</v>
       </c>
-      <c r="G12" s="6">
-        <v>0</v>
-      </c>
-      <c r="H12" s="6">
+      <c r="G12" s="10">
+        <v>0</v>
+      </c>
+      <c r="H12" s="10">
         <v>0</v>
       </c>
       <c r="J12" s="4">
@@ -8033,26 +7349,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="B13" s="4">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B13" s="11">
         <v>0.05</v>
       </c>
-      <c r="C13" s="6">
-        <v>0</v>
-      </c>
-      <c r="D13" s="6">
+      <c r="C13" s="10">
+        <v>0</v>
+      </c>
+      <c r="D13" s="10">
         <v>-0.50438660000000002</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="10">
         <v>-6.8920000000000003</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="10">
         <v>-83</v>
       </c>
-      <c r="G13" s="6">
-        <v>0</v>
-      </c>
-      <c r="H13" s="6">
+      <c r="G13" s="10">
+        <v>0</v>
+      </c>
+      <c r="H13" s="10">
         <v>0</v>
       </c>
       <c r="J13" s="4">
@@ -8077,26 +7393,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="B14" s="3" t="s">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B14" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="6">
-        <v>0</v>
-      </c>
-      <c r="D14" s="6">
+      <c r="C14" s="10">
+        <v>0</v>
+      </c>
+      <c r="D14" s="10">
         <v>-12.037838000000001</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="10">
         <v>-82.637299999999996</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="10">
         <v>-239</v>
       </c>
-      <c r="G14" s="6">
-        <v>0</v>
-      </c>
-      <c r="H14" s="6">
+      <c r="G14" s="10">
+        <v>0</v>
+      </c>
+      <c r="H14" s="10">
         <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
@@ -8121,10 +7437,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B15" s="1"/>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B17" s="2">
         <v>1</v>
       </c>
@@ -8168,7 +7484,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B18" s="3" t="s">
         <v>7</v>
       </c>
@@ -8212,7 +7528,7 @@
         <v>0.23480757692637352</v>
       </c>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B19" s="3" t="s">
         <v>8</v>
       </c>
@@ -8256,7 +7572,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B20" s="4">
         <v>0.95</v>
       </c>
@@ -8300,7 +7616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B21" s="4">
         <v>0.9</v>
       </c>
@@ -8344,7 +7660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B22" s="4">
         <v>0.85</v>
       </c>
@@ -8388,7 +7704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B23" s="3" t="s">
         <v>9</v>
       </c>
@@ -8432,7 +7748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B24" s="3" t="s">
         <v>10</v>
       </c>
@@ -8476,7 +7792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B25" s="3" t="s">
         <v>11</v>
       </c>
@@ -8520,7 +7836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B26" s="4">
         <v>0.15</v>
       </c>
@@ -8564,7 +7880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B27" s="4">
         <v>0.1</v>
       </c>
@@ -8608,7 +7924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B28" s="4">
         <v>0.05</v>
       </c>
@@ -8652,7 +7968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B29" s="3" t="s">
         <v>12</v>
       </c>
@@ -8696,7 +8012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B32" s="2">
         <v>3</v>
       </c>
@@ -8740,7 +8056,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B33" s="3" t="s">
         <v>7</v>
       </c>
@@ -8784,7 +8100,7 @@
         <v>0.9584594310471154</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B34" s="3" t="s">
         <v>8</v>
       </c>
@@ -8828,7 +8144,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B35" s="4">
         <v>0.95</v>
       </c>
@@ -8872,7 +8188,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B36" s="4">
         <v>0.9</v>
       </c>
@@ -8916,7 +8232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B37" s="4">
         <v>0.85</v>
       </c>
@@ -8960,7 +8276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B38" s="3" t="s">
         <v>9</v>
       </c>
@@ -9004,7 +8320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B39" s="3" t="s">
         <v>10</v>
       </c>
@@ -9048,7 +8364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B40" s="3" t="s">
         <v>11</v>
       </c>
@@ -9092,7 +8408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B41" s="4">
         <v>0.15</v>
       </c>
@@ -9136,7 +8452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B42" s="4">
         <v>0.1</v>
       </c>
@@ -9180,7 +8496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B43" s="4">
         <v>0.05</v>
       </c>
@@ -9224,7 +8540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B44" s="3" t="s">
         <v>12</v>
       </c>
@@ -9268,10 +8584,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B45" s="5"/>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B47" s="2">
         <v>5</v>
       </c>
@@ -9315,7 +8631,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B48" s="3" t="s">
         <v>7</v>
       </c>
@@ -9359,7 +8675,7 @@
         <v>7.8340635268346115E-2</v>
       </c>
     </row>
-    <row r="49" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B49" s="3" t="s">
         <v>8</v>
       </c>
@@ -9403,7 +8719,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B50" s="4">
         <v>0.95</v>
       </c>
@@ -9447,7 +8763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B51" s="4">
         <v>0.9</v>
       </c>
@@ -9491,7 +8807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B52" s="4">
         <v>0.85</v>
       </c>
@@ -9535,7 +8851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B53" s="3" t="s">
         <v>9</v>
       </c>
@@ -9579,7 +8895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B54" s="3" t="s">
         <v>10</v>
       </c>
@@ -9623,7 +8939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B55" s="3" t="s">
         <v>11</v>
       </c>
@@ -9667,7 +8983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B56" s="4">
         <v>0.15</v>
       </c>
@@ -9711,7 +9027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B57" s="4">
         <v>0.1</v>
       </c>
@@ -9755,7 +9071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B58" s="4">
         <v>0.05</v>
       </c>
@@ -9799,7 +9115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B59" s="3" t="s">
         <v>12</v>
       </c>
@@ -9843,7 +9159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B62" s="2">
         <v>7</v>
       </c>
@@ -9866,7 +9182,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B63" s="3" t="s">
         <v>7</v>
       </c>
@@ -9889,7 +9205,7 @@
         <v>25.334259443011181</v>
       </c>
     </row>
-    <row r="64" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="64" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B64" s="3" t="s">
         <v>8</v>
       </c>
@@ -9912,7 +9228,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="65" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B65" s="4">
         <v>0.95</v>
       </c>
@@ -9935,7 +9251,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="66" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B66" s="4">
         <v>0.9</v>
       </c>
@@ -9958,7 +9274,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="67" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B67" s="4">
         <v>0.85</v>
       </c>
@@ -9981,7 +9297,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="68" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B68" s="3" t="s">
         <v>9</v>
       </c>
@@ -10004,7 +9320,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="69" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B69" s="3" t="s">
         <v>10</v>
       </c>
@@ -10027,7 +9343,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="70" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B70" s="3" t="s">
         <v>11</v>
       </c>
@@ -10050,7 +9366,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="71" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B71" s="4">
         <v>0.15</v>
       </c>
@@ -10073,7 +9389,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="72" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B72" s="4">
         <v>0.1</v>
       </c>
@@ -10096,7 +9412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="73" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B73" s="4">
         <v>0.05</v>
       </c>
@@ -10119,7 +9435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="74" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B74" s="3" t="s">
         <v>12</v>
       </c>
@@ -10156,9 +9472,9 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
@@ -10202,7 +9518,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
@@ -10258,7 +9574,7 @@
         <v>-0.19092511731715378</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
@@ -10314,7 +9630,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B5" s="4">
         <v>0.95</v>
       </c>
@@ -10370,7 +9686,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B6" s="4">
         <v>0.9</v>
       </c>
@@ -10426,7 +9742,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B7" s="4">
         <v>0.85</v>
       </c>
@@ -10482,7 +9798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
@@ -10538,7 +9854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
         <v>10</v>
       </c>
@@ -10594,7 +9910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
         <v>11</v>
       </c>
@@ -10650,7 +9966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B11" s="4">
         <v>0.15</v>
       </c>
@@ -10706,7 +10022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B12" s="4">
         <v>0.1</v>
       </c>
@@ -10762,7 +10078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B13" s="4">
         <v>0.05</v>
       </c>
@@ -10818,7 +10134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
         <v>12</v>
       </c>
@@ -10874,7 +10190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B17" s="2">
         <v>1</v>
       </c>
@@ -10918,7 +10234,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B18" s="3" t="s">
         <v>7</v>
       </c>
@@ -10974,7 +10290,7 @@
         <v>-0.88047164122677124</v>
       </c>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B19" s="3" t="s">
         <v>8</v>
       </c>
@@ -11030,7 +10346,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B20" s="4">
         <v>0.95</v>
       </c>
@@ -11086,7 +10402,7 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B21" s="4">
         <v>0.9</v>
       </c>
@@ -11142,7 +10458,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B22" s="4">
         <v>0.85</v>
       </c>
@@ -11198,7 +10514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B23" s="3" t="s">
         <v>9</v>
       </c>
@@ -11254,7 +10570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B24" s="3" t="s">
         <v>10</v>
       </c>
@@ -11310,7 +10626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B25" s="3" t="s">
         <v>11</v>
       </c>
@@ -11366,7 +10682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B26" s="4">
         <v>0.15</v>
       </c>
@@ -11422,7 +10738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B27" s="4">
         <v>0.1</v>
       </c>
@@ -11478,7 +10794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B28" s="4">
         <v>0.05</v>
       </c>
@@ -11534,7 +10850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B29" s="3" t="s">
         <v>12</v>
       </c>
@@ -11590,7 +10906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B32" s="2">
         <v>3</v>
       </c>
@@ -11634,7 +10950,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B33" s="3" t="s">
         <v>7</v>
       </c>
@@ -11690,7 +11006,7 @@
         <v>-1.6519267214150348</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B34" s="3" t="s">
         <v>8</v>
       </c>
@@ -11746,7 +11062,7 @@
         <v>-22</v>
       </c>
     </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B35" s="4">
         <v>0.95</v>
       </c>
@@ -11802,7 +11118,7 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B36" s="4">
         <v>0.9</v>
       </c>
@@ -11858,7 +11174,7 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B37" s="4">
         <v>0.85</v>
       </c>
@@ -11914,7 +11230,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B38" s="3" t="s">
         <v>9</v>
       </c>
@@ -11970,7 +11286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B39" s="3" t="s">
         <v>10</v>
       </c>
@@ -12026,7 +11342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B40" s="3" t="s">
         <v>11</v>
       </c>
@@ -12082,7 +11398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B41" s="4">
         <v>0.15</v>
       </c>
@@ -12138,7 +11454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B42" s="4">
         <v>0.1</v>
       </c>
@@ -12194,7 +11510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B43" s="4">
         <v>0.05</v>
       </c>
@@ -12250,7 +11566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B44" s="3" t="s">
         <v>12</v>
       </c>
@@ -12306,7 +11622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B47" s="2">
         <v>5</v>
       </c>
@@ -12350,7 +11666,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B48" s="3" t="s">
         <v>7</v>
       </c>
@@ -12406,7 +11722,7 @@
         <v>-0.1678082191780822</v>
       </c>
     </row>
-    <row r="49" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B49" s="3" t="s">
         <v>8</v>
       </c>
@@ -12462,7 +11778,7 @@
         <v>-28</v>
       </c>
     </row>
-    <row r="50" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B50" s="4">
         <v>0.95</v>
       </c>
@@ -12518,7 +11834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B51" s="4">
         <v>0.9</v>
       </c>
@@ -12574,7 +11890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B52" s="4">
         <v>0.85</v>
       </c>
@@ -12630,7 +11946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B53" s="3" t="s">
         <v>9</v>
       </c>
@@ -12686,7 +12002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B54" s="3" t="s">
         <v>10</v>
       </c>
@@ -12742,7 +12058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B55" s="3" t="s">
         <v>11</v>
       </c>
@@ -12798,7 +12114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B56" s="4">
         <v>0.15</v>
       </c>
@@ -12854,7 +12170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B57" s="4">
         <v>0.1</v>
       </c>
@@ -12910,7 +12226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B58" s="4">
         <v>0.05</v>
       </c>
@@ -12966,7 +12282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B59" s="3" t="s">
         <v>12</v>
       </c>
@@ -13022,7 +12338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B62" s="2">
         <v>7</v>
       </c>
@@ -13045,7 +12361,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B63" s="3" t="s">
         <v>7</v>
       </c>
@@ -13074,7 +12390,7 @@
         <v>-12.202803695595861</v>
       </c>
     </row>
-    <row r="64" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="64" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B64" s="3" t="s">
         <v>8</v>
       </c>
@@ -13103,7 +12419,7 @@
         <v>-39</v>
       </c>
     </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="65" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B65" s="4">
         <v>0.95</v>
       </c>
@@ -13132,7 +12448,7 @@
         <v>16.549999999999955</v>
       </c>
     </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="66" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B66" s="4">
         <v>0.9</v>
       </c>
@@ -13161,7 +12477,7 @@
         <v>-23</v>
       </c>
     </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="67" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B67" s="4">
         <v>0.85</v>
       </c>
@@ -13190,7 +12506,7 @@
         <v>-22</v>
       </c>
     </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="68" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B68" s="3" t="s">
         <v>9</v>
       </c>
@@ -13219,7 +12535,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="69" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B69" s="3" t="s">
         <v>10</v>
       </c>
@@ -13248,7 +12564,7 @@
         <v>-16</v>
       </c>
     </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="70" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B70" s="3" t="s">
         <v>11</v>
       </c>
@@ -13277,7 +12593,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="71" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B71" s="4">
         <v>0.15</v>
       </c>
@@ -13306,7 +12622,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="72" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B72" s="4">
         <v>0.1</v>
       </c>
@@ -13335,7 +12651,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="73" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B73" s="4">
         <v>0.05</v>
       </c>
@@ -13364,7 +12680,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="74" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B74" s="3" t="s">
         <v>12</v>
       </c>
@@ -13396,307 +12712,307 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C3:H14">
-    <cfRule type="cellIs" dxfId="72" priority="65" operator="between">
+    <cfRule type="cellIs" dxfId="143" priority="65" operator="between">
       <formula>-100</formula>
       <formula>-10000</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="66" operator="between">
+    <cfRule type="cellIs" dxfId="142" priority="66" operator="between">
       <formula>-100</formula>
       <formula>-50</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="67" operator="between">
+    <cfRule type="cellIs" dxfId="141" priority="67" operator="between">
       <formula>-50</formula>
       <formula>-25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="68" operator="between">
+    <cfRule type="cellIs" dxfId="140" priority="68" operator="between">
       <formula>-25</formula>
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="69" operator="between">
+    <cfRule type="cellIs" dxfId="139" priority="69" operator="between">
       <formula>75</formula>
       <formula>10000</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="70" operator="between">
+    <cfRule type="cellIs" dxfId="138" priority="70" operator="between">
       <formula>50</formula>
       <formula>75</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="71" operator="between">
+    <cfRule type="cellIs" dxfId="137" priority="71" operator="between">
       <formula>25</formula>
       <formula>50</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="72" operator="between">
+    <cfRule type="cellIs" dxfId="136" priority="72" operator="between">
       <formula>0</formula>
       <formula>25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:P14">
-    <cfRule type="cellIs" dxfId="64" priority="57" operator="between">
+    <cfRule type="cellIs" dxfId="135" priority="57" operator="between">
       <formula>-100</formula>
       <formula>-10000</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="58" operator="between">
+    <cfRule type="cellIs" dxfId="134" priority="58" operator="between">
       <formula>-100</formula>
       <formula>-50</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="59" operator="between">
+    <cfRule type="cellIs" dxfId="133" priority="59" operator="between">
       <formula>-50</formula>
       <formula>-25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="60" operator="between">
+    <cfRule type="cellIs" dxfId="132" priority="60" operator="between">
       <formula>-25</formula>
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="61" operator="between">
+    <cfRule type="cellIs" dxfId="131" priority="61" operator="between">
       <formula>75</formula>
       <formula>10000</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="62" operator="between">
+    <cfRule type="cellIs" dxfId="130" priority="62" operator="between">
       <formula>50</formula>
       <formula>75</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="63" operator="between">
+    <cfRule type="cellIs" dxfId="129" priority="63" operator="between">
       <formula>25</formula>
       <formula>50</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="71" priority="64" operator="between">
+    <cfRule type="cellIs" dxfId="128" priority="64" operator="between">
       <formula>0</formula>
       <formula>25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18:H29">
-    <cfRule type="cellIs" dxfId="56" priority="49" operator="between">
+    <cfRule type="cellIs" dxfId="127" priority="49" operator="between">
       <formula>-100</formula>
       <formula>-10000</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="50" operator="between">
+    <cfRule type="cellIs" dxfId="126" priority="50" operator="between">
       <formula>-100</formula>
       <formula>-50</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="51" operator="between">
+    <cfRule type="cellIs" dxfId="125" priority="51" operator="between">
       <formula>-50</formula>
       <formula>-25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="52" operator="between">
+    <cfRule type="cellIs" dxfId="124" priority="52" operator="between">
       <formula>-25</formula>
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="53" operator="between">
+    <cfRule type="cellIs" dxfId="123" priority="53" operator="between">
       <formula>75</formula>
       <formula>10000</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="54" operator="between">
+    <cfRule type="cellIs" dxfId="122" priority="54" operator="between">
       <formula>50</formula>
       <formula>75</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="55" operator="between">
+    <cfRule type="cellIs" dxfId="121" priority="55" operator="between">
       <formula>25</formula>
       <formula>50</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="56" operator="between">
+    <cfRule type="cellIs" dxfId="120" priority="56" operator="between">
       <formula>0</formula>
       <formula>25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K18:P29">
-    <cfRule type="cellIs" dxfId="48" priority="41" operator="between">
+    <cfRule type="cellIs" dxfId="119" priority="41" operator="between">
       <formula>-100</formula>
       <formula>-10000</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="42" operator="between">
+    <cfRule type="cellIs" dxfId="118" priority="42" operator="between">
       <formula>-100</formula>
       <formula>-50</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="43" operator="between">
+    <cfRule type="cellIs" dxfId="117" priority="43" operator="between">
       <formula>-50</formula>
       <formula>-25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="44" operator="between">
+    <cfRule type="cellIs" dxfId="116" priority="44" operator="between">
       <formula>-25</formula>
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="45" operator="between">
+    <cfRule type="cellIs" dxfId="115" priority="45" operator="between">
       <formula>75</formula>
       <formula>10000</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="46" operator="between">
+    <cfRule type="cellIs" dxfId="114" priority="46" operator="between">
       <formula>50</formula>
       <formula>75</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="47" operator="between">
+    <cfRule type="cellIs" dxfId="113" priority="47" operator="between">
       <formula>25</formula>
       <formula>50</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="48" operator="between">
+    <cfRule type="cellIs" dxfId="112" priority="48" operator="between">
       <formula>0</formula>
       <formula>25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33:H44">
-    <cfRule type="cellIs" dxfId="40" priority="33" operator="between">
+    <cfRule type="cellIs" dxfId="111" priority="33" operator="between">
       <formula>-100</formula>
       <formula>-10000</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="34" operator="between">
+    <cfRule type="cellIs" dxfId="110" priority="34" operator="between">
       <formula>-100</formula>
       <formula>-50</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="35" operator="between">
+    <cfRule type="cellIs" dxfId="109" priority="35" operator="between">
       <formula>-50</formula>
       <formula>-25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="36" operator="between">
+    <cfRule type="cellIs" dxfId="108" priority="36" operator="between">
       <formula>-25</formula>
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="37" operator="between">
+    <cfRule type="cellIs" dxfId="107" priority="37" operator="between">
       <formula>75</formula>
       <formula>10000</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="38" operator="between">
+    <cfRule type="cellIs" dxfId="106" priority="38" operator="between">
       <formula>50</formula>
       <formula>75</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="39" operator="between">
+    <cfRule type="cellIs" dxfId="105" priority="39" operator="between">
       <formula>25</formula>
       <formula>50</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="40" operator="between">
+    <cfRule type="cellIs" dxfId="104" priority="40" operator="between">
       <formula>0</formula>
       <formula>25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K33:P44">
-    <cfRule type="cellIs" dxfId="32" priority="25" operator="between">
+    <cfRule type="cellIs" dxfId="103" priority="25" operator="between">
       <formula>-100</formula>
       <formula>-10000</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="26" operator="between">
+    <cfRule type="cellIs" dxfId="102" priority="26" operator="between">
       <formula>-100</formula>
       <formula>-50</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="27" operator="between">
+    <cfRule type="cellIs" dxfId="101" priority="27" operator="between">
       <formula>-50</formula>
       <formula>-25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="28" operator="between">
+    <cfRule type="cellIs" dxfId="100" priority="28" operator="between">
       <formula>-25</formula>
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="29" operator="between">
+    <cfRule type="cellIs" dxfId="99" priority="29" operator="between">
       <formula>75</formula>
       <formula>10000</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="30" operator="between">
+    <cfRule type="cellIs" dxfId="98" priority="30" operator="between">
       <formula>50</formula>
       <formula>75</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="31" operator="between">
+    <cfRule type="cellIs" dxfId="97" priority="31" operator="between">
       <formula>25</formula>
       <formula>50</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="32" operator="between">
+    <cfRule type="cellIs" dxfId="96" priority="32" operator="between">
       <formula>0</formula>
       <formula>25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48:H59">
-    <cfRule type="cellIs" dxfId="24" priority="17" operator="between">
+    <cfRule type="cellIs" dxfId="95" priority="17" operator="between">
       <formula>-100</formula>
       <formula>-10000</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="18" operator="between">
+    <cfRule type="cellIs" dxfId="94" priority="18" operator="between">
       <formula>-100</formula>
       <formula>-50</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="19" operator="between">
+    <cfRule type="cellIs" dxfId="93" priority="19" operator="between">
       <formula>-50</formula>
       <formula>-25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="20" operator="between">
+    <cfRule type="cellIs" dxfId="92" priority="20" operator="between">
       <formula>-25</formula>
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="21" operator="between">
+    <cfRule type="cellIs" dxfId="91" priority="21" operator="between">
       <formula>75</formula>
       <formula>10000</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="22" operator="between">
+    <cfRule type="cellIs" dxfId="90" priority="22" operator="between">
       <formula>50</formula>
       <formula>75</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="23" operator="between">
+    <cfRule type="cellIs" dxfId="89" priority="23" operator="between">
       <formula>25</formula>
       <formula>50</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="24" operator="between">
+    <cfRule type="cellIs" dxfId="88" priority="24" operator="between">
       <formula>0</formula>
       <formula>25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K48:P59">
-    <cfRule type="cellIs" dxfId="16" priority="9" operator="between">
+    <cfRule type="cellIs" dxfId="87" priority="9" operator="between">
       <formula>-100</formula>
       <formula>-10000</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="10" operator="between">
+    <cfRule type="cellIs" dxfId="86" priority="10" operator="between">
       <formula>-100</formula>
       <formula>-50</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="11" operator="between">
+    <cfRule type="cellIs" dxfId="85" priority="11" operator="between">
       <formula>-50</formula>
       <formula>-25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="12" operator="between">
+    <cfRule type="cellIs" dxfId="84" priority="12" operator="between">
       <formula>-25</formula>
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="13" operator="between">
+    <cfRule type="cellIs" dxfId="83" priority="13" operator="between">
       <formula>75</formula>
       <formula>10000</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="14" operator="between">
+    <cfRule type="cellIs" dxfId="82" priority="14" operator="between">
       <formula>50</formula>
       <formula>75</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="15" operator="between">
+    <cfRule type="cellIs" dxfId="81" priority="15" operator="between">
       <formula>25</formula>
       <formula>50</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="16" operator="between">
+    <cfRule type="cellIs" dxfId="80" priority="16" operator="between">
       <formula>0</formula>
       <formula>25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C63:H74">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="79" priority="1" operator="between">
       <formula>-100</formula>
       <formula>-10000</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="78" priority="2" operator="between">
       <formula>-100</formula>
       <formula>-50</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="77" priority="3" operator="between">
       <formula>-50</formula>
       <formula>-25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="76" priority="4" operator="between">
       <formula>-25</formula>
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="75" priority="5" operator="between">
       <formula>75</formula>
       <formula>10000</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="6" operator="between">
+    <cfRule type="cellIs" dxfId="74" priority="6" operator="between">
       <formula>50</formula>
       <formula>75</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="7" operator="between">
+    <cfRule type="cellIs" dxfId="73" priority="7" operator="between">
       <formula>25</formula>
       <formula>50</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="8" operator="between">
+    <cfRule type="cellIs" dxfId="72" priority="8" operator="between">
       <formula>0</formula>
       <formula>25</formula>
     </cfRule>
@@ -13709,16 +13025,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24E73C01-8EC4-4C3B-8D95-9E1436F0D2F8}">
   <dimension ref="B2:P74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="12.8984375" customWidth="1"/>
+    <col min="5" max="5" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
@@ -13762,7 +13078,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
@@ -13818,7 +13134,7 @@
         <v>-5.4759543473562156E-2</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
@@ -13874,7 +13190,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B5" s="4">
         <v>0.95</v>
       </c>
@@ -13930,7 +13246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B6" s="4">
         <v>0.9</v>
       </c>
@@ -13986,7 +13302,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B7" s="4">
         <v>0.85</v>
       </c>
@@ -14042,7 +13358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
@@ -14098,7 +13414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
         <v>10</v>
       </c>
@@ -14154,7 +13470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
         <v>11</v>
       </c>
@@ -14210,7 +13526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B11" s="4">
         <v>0.15</v>
       </c>
@@ -14266,7 +13582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B12" s="4">
         <v>0.1</v>
       </c>
@@ -14322,7 +13638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B13" s="4">
         <v>0.05</v>
       </c>
@@ -14378,7 +13694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
         <v>12</v>
       </c>
@@ -14434,7 +13750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B17" s="2">
         <v>1</v>
       </c>
@@ -14478,7 +13794,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B18" s="3" t="s">
         <v>7</v>
       </c>
@@ -14534,7 +13850,7 @@
         <v>-0.87937704835506736</v>
       </c>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B19" s="3" t="s">
         <v>8</v>
       </c>
@@ -14590,7 +13906,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B20" s="4">
         <v>0.95</v>
       </c>
@@ -14646,7 +13962,7 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B21" s="4">
         <v>0.9</v>
       </c>
@@ -14702,7 +14018,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B22" s="4">
         <v>0.85</v>
       </c>
@@ -14758,7 +14074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B23" s="3" t="s">
         <v>9</v>
       </c>
@@ -14814,7 +14130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B24" s="3" t="s">
         <v>10</v>
       </c>
@@ -14870,7 +14186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B25" s="3" t="s">
         <v>11</v>
       </c>
@@ -14926,7 +14242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B26" s="4">
         <v>0.15</v>
       </c>
@@ -14982,7 +14298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B27" s="4">
         <v>0.1</v>
       </c>
@@ -15038,7 +14354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B28" s="4">
         <v>0.05</v>
       </c>
@@ -15094,7 +14410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B29" s="3" t="s">
         <v>12</v>
       </c>
@@ -15150,7 +14466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B32" s="2">
         <v>3</v>
       </c>
@@ -15194,7 +14510,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B33" s="3" t="s">
         <v>7</v>
       </c>
@@ -15250,7 +14566,7 @@
         <v>-0.69346729036791943</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B34" s="3" t="s">
         <v>8</v>
       </c>
@@ -15306,7 +14622,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B35" s="4">
         <v>0.95</v>
       </c>
@@ -15362,7 +14678,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B36" s="4">
         <v>0.9</v>
       </c>
@@ -15418,7 +14734,7 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B37" s="4">
         <v>0.85</v>
       </c>
@@ -15474,7 +14790,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B38" s="3" t="s">
         <v>9</v>
       </c>
@@ -15530,7 +14846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B39" s="3" t="s">
         <v>10</v>
       </c>
@@ -15586,7 +14902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B40" s="3" t="s">
         <v>11</v>
       </c>
@@ -15642,7 +14958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B41" s="4">
         <v>0.15</v>
       </c>
@@ -15698,7 +15014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B42" s="4">
         <v>0.1</v>
       </c>
@@ -15754,7 +15070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B43" s="4">
         <v>0.05</v>
       </c>
@@ -15810,7 +15126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B44" s="3" t="s">
         <v>12</v>
       </c>
@@ -15866,7 +15182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B47" s="2">
         <v>5</v>
       </c>
@@ -15910,7 +15226,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B48" s="3" t="s">
         <v>7</v>
       </c>
@@ -15966,7 +15282,7 @@
         <v>-8.9467583909736081E-2</v>
       </c>
     </row>
-    <row r="49" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B49" s="3" t="s">
         <v>8</v>
       </c>
@@ -16022,7 +15338,7 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="50" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B50" s="4">
         <v>0.95</v>
       </c>
@@ -16078,7 +15394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B51" s="4">
         <v>0.9</v>
       </c>
@@ -16134,7 +15450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B52" s="4">
         <v>0.85</v>
       </c>
@@ -16190,7 +15506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B53" s="3" t="s">
         <v>9</v>
       </c>
@@ -16246,7 +15562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B54" s="3" t="s">
         <v>10</v>
       </c>
@@ -16302,7 +15618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B55" s="3" t="s">
         <v>11</v>
       </c>
@@ -16358,7 +15674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B56" s="4">
         <v>0.15</v>
       </c>
@@ -16414,7 +15730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B57" s="4">
         <v>0.1</v>
       </c>
@@ -16470,7 +15786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B58" s="4">
         <v>0.05</v>
       </c>
@@ -16526,7 +15842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B59" s="3" t="s">
         <v>12</v>
       </c>
@@ -16582,7 +15898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B62" s="2">
         <v>7</v>
       </c>
@@ -16605,7 +15921,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B63" s="3" t="s">
         <v>7</v>
       </c>
@@ -16634,7 +15950,7 @@
         <v>9.433150662669556</v>
       </c>
     </row>
-    <row r="64" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="64" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B64" s="3" t="s">
         <v>8</v>
       </c>
@@ -16663,7 +15979,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="65" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B65" s="4">
         <v>0.95</v>
       </c>
@@ -16692,7 +16008,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="66" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B66" s="4">
         <v>0.9</v>
       </c>
@@ -16721,7 +16037,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="67" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B67" s="4">
         <v>0.85</v>
       </c>
@@ -16750,7 +16066,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="68" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B68" s="3" t="s">
         <v>9</v>
       </c>
@@ -16779,7 +16095,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="69" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B69" s="3" t="s">
         <v>10</v>
       </c>
@@ -16808,7 +16124,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="70" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B70" s="3" t="s">
         <v>11</v>
       </c>
@@ -16837,7 +16153,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="71" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B71" s="4">
         <v>0.15</v>
       </c>
@@ -16866,7 +16182,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="72" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B72" s="4">
         <v>0.1</v>
       </c>
@@ -16895,7 +16211,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="73" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B73" s="4">
         <v>0.05</v>
       </c>
@@ -16924,7 +16240,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="74" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B74" s="3" t="s">
         <v>12</v>
       </c>
@@ -16956,273 +16272,273 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C3:H14">
-    <cfRule type="cellIs" dxfId="144" priority="107" operator="between">
+    <cfRule type="cellIs" dxfId="71" priority="107" operator="between">
       <formula>0</formula>
       <formula>25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="106" operator="between">
+    <cfRule type="cellIs" dxfId="70" priority="106" operator="between">
       <formula>25</formula>
       <formula>50</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="105" operator="between">
+    <cfRule type="cellIs" dxfId="69" priority="105" operator="between">
       <formula>50</formula>
       <formula>75</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="147" priority="104" operator="between">
+    <cfRule type="cellIs" dxfId="68" priority="104" operator="between">
       <formula>75</formula>
       <formula>10000</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="103" operator="between">
+    <cfRule type="cellIs" dxfId="67" priority="103" operator="between">
       <formula>-25</formula>
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="149" priority="102" operator="between">
+    <cfRule type="cellIs" dxfId="66" priority="102" operator="between">
       <formula>-50</formula>
       <formula>-25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="101" operator="between">
+    <cfRule type="cellIs" dxfId="65" priority="101" operator="between">
       <formula>-100</formula>
       <formula>-50</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="151" priority="65" operator="between">
+    <cfRule type="cellIs" dxfId="64" priority="65" operator="between">
       <formula>-100</formula>
       <formula>-10000</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:P14">
-    <cfRule type="cellIs" dxfId="128" priority="57" operator="between">
+    <cfRule type="cellIs" dxfId="63" priority="57" operator="between">
       <formula>-100</formula>
       <formula>-10000</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="58" operator="between">
+    <cfRule type="cellIs" dxfId="62" priority="58" operator="between">
       <formula>-100</formula>
       <formula>-50</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="59" operator="between">
+    <cfRule type="cellIs" dxfId="61" priority="59" operator="between">
       <formula>-50</formula>
       <formula>-25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="131" priority="60" operator="between">
+    <cfRule type="cellIs" dxfId="60" priority="60" operator="between">
       <formula>-25</formula>
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="61" operator="between">
+    <cfRule type="cellIs" dxfId="59" priority="61" operator="between">
       <formula>75</formula>
       <formula>10000</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="62" operator="between">
+    <cfRule type="cellIs" dxfId="58" priority="62" operator="between">
       <formula>50</formula>
       <formula>75</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="63" operator="between">
+    <cfRule type="cellIs" dxfId="57" priority="63" operator="between">
       <formula>25</formula>
       <formula>50</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="135" priority="64" operator="between">
+    <cfRule type="cellIs" dxfId="56" priority="64" operator="between">
       <formula>0</formula>
       <formula>25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18:H29">
-    <cfRule type="cellIs" dxfId="120" priority="49" operator="between">
+    <cfRule type="cellIs" dxfId="55" priority="49" operator="between">
       <formula>-100</formula>
       <formula>-10000</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="50" operator="between">
+    <cfRule type="cellIs" dxfId="54" priority="50" operator="between">
       <formula>-100</formula>
       <formula>-50</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="51" operator="between">
+    <cfRule type="cellIs" dxfId="53" priority="51" operator="between">
       <formula>-50</formula>
       <formula>-25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="52" operator="between">
+    <cfRule type="cellIs" dxfId="52" priority="52" operator="between">
       <formula>-25</formula>
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="53" operator="between">
+    <cfRule type="cellIs" dxfId="51" priority="53" operator="between">
       <formula>75</formula>
       <formula>10000</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="125" priority="54" operator="between">
+    <cfRule type="cellIs" dxfId="50" priority="54" operator="between">
       <formula>50</formula>
       <formula>75</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="55" operator="between">
+    <cfRule type="cellIs" dxfId="49" priority="55" operator="between">
       <formula>25</formula>
       <formula>50</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="127" priority="56" operator="between">
+    <cfRule type="cellIs" dxfId="48" priority="56" operator="between">
       <formula>0</formula>
       <formula>25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K18:P29">
-    <cfRule type="cellIs" dxfId="112" priority="41" operator="between">
+    <cfRule type="cellIs" dxfId="47" priority="41" operator="between">
       <formula>-100</formula>
       <formula>-10000</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="42" operator="between">
+    <cfRule type="cellIs" dxfId="46" priority="42" operator="between">
       <formula>-100</formula>
       <formula>-50</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="43" operator="between">
+    <cfRule type="cellIs" dxfId="45" priority="43" operator="between">
       <formula>-50</formula>
       <formula>-25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="44" operator="between">
+    <cfRule type="cellIs" dxfId="44" priority="44" operator="between">
       <formula>-25</formula>
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="45" operator="between">
+    <cfRule type="cellIs" dxfId="43" priority="45" operator="between">
       <formula>75</formula>
       <formula>10000</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="46" operator="between">
+    <cfRule type="cellIs" dxfId="42" priority="46" operator="between">
       <formula>50</formula>
       <formula>75</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="47" operator="between">
+    <cfRule type="cellIs" dxfId="41" priority="47" operator="between">
       <formula>25</formula>
       <formula>50</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="119" priority="48" operator="between">
+    <cfRule type="cellIs" dxfId="40" priority="48" operator="between">
       <formula>0</formula>
       <formula>25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33:H44">
-    <cfRule type="cellIs" dxfId="104" priority="33" operator="between">
+    <cfRule type="cellIs" dxfId="39" priority="33" operator="between">
       <formula>-100</formula>
       <formula>-10000</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="34" operator="between">
+    <cfRule type="cellIs" dxfId="38" priority="34" operator="between">
       <formula>-100</formula>
       <formula>-50</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="35" operator="between">
+    <cfRule type="cellIs" dxfId="37" priority="35" operator="between">
       <formula>-50</formula>
       <formula>-25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="107" priority="36" operator="between">
+    <cfRule type="cellIs" dxfId="36" priority="36" operator="between">
       <formula>-25</formula>
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="37" operator="between">
+    <cfRule type="cellIs" dxfId="35" priority="37" operator="between">
       <formula>75</formula>
       <formula>10000</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="38" operator="between">
+    <cfRule type="cellIs" dxfId="34" priority="38" operator="between">
       <formula>50</formula>
       <formula>75</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="39" operator="between">
+    <cfRule type="cellIs" dxfId="33" priority="39" operator="between">
       <formula>25</formula>
       <formula>50</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="111" priority="40" operator="between">
+    <cfRule type="cellIs" dxfId="32" priority="40" operator="between">
       <formula>0</formula>
       <formula>25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K33:P44">
-    <cfRule type="cellIs" dxfId="96" priority="25" operator="between">
+    <cfRule type="cellIs" dxfId="31" priority="25" operator="between">
       <formula>-100</formula>
       <formula>-10000</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="26" operator="between">
+    <cfRule type="cellIs" dxfId="30" priority="26" operator="between">
       <formula>-100</formula>
       <formula>-50</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="27" operator="between">
+    <cfRule type="cellIs" dxfId="29" priority="27" operator="between">
       <formula>-50</formula>
       <formula>-25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="28" operator="between">
+    <cfRule type="cellIs" dxfId="28" priority="28" operator="between">
       <formula>-25</formula>
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="29" operator="between">
+    <cfRule type="cellIs" dxfId="27" priority="29" operator="between">
       <formula>75</formula>
       <formula>10000</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="30" operator="between">
+    <cfRule type="cellIs" dxfId="26" priority="30" operator="between">
       <formula>50</formula>
       <formula>75</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="31" operator="between">
+    <cfRule type="cellIs" dxfId="25" priority="31" operator="between">
       <formula>25</formula>
       <formula>50</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="32" operator="between">
+    <cfRule type="cellIs" dxfId="24" priority="32" operator="between">
       <formula>0</formula>
       <formula>25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48:H59">
-    <cfRule type="cellIs" dxfId="88" priority="17" operator="between">
+    <cfRule type="cellIs" dxfId="23" priority="17" operator="between">
       <formula>-100</formula>
       <formula>-10000</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="18" operator="between">
+    <cfRule type="cellIs" dxfId="22" priority="18" operator="between">
       <formula>-100</formula>
       <formula>-50</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="19" operator="between">
+    <cfRule type="cellIs" dxfId="21" priority="19" operator="between">
       <formula>-50</formula>
       <formula>-25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="20" operator="between">
+    <cfRule type="cellIs" dxfId="20" priority="20" operator="between">
       <formula>-25</formula>
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="21" operator="between">
+    <cfRule type="cellIs" dxfId="19" priority="21" operator="between">
       <formula>75</formula>
       <formula>10000</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="22" operator="between">
+    <cfRule type="cellIs" dxfId="18" priority="22" operator="between">
       <formula>50</formula>
       <formula>75</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="23" operator="between">
+    <cfRule type="cellIs" dxfId="17" priority="23" operator="between">
       <formula>25</formula>
       <formula>50</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="95" priority="24" operator="between">
+    <cfRule type="cellIs" dxfId="16" priority="24" operator="between">
       <formula>0</formula>
       <formula>25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K48:P59">
-    <cfRule type="cellIs" dxfId="80" priority="9" operator="between">
+    <cfRule type="cellIs" dxfId="15" priority="9" operator="between">
       <formula>-100</formula>
       <formula>-10000</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="10" operator="between">
+    <cfRule type="cellIs" dxfId="14" priority="10" operator="between">
       <formula>-100</formula>
       <formula>-50</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="11" operator="between">
+    <cfRule type="cellIs" dxfId="13" priority="11" operator="between">
       <formula>-50</formula>
       <formula>-25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="83" priority="12" operator="between">
+    <cfRule type="cellIs" dxfId="12" priority="12" operator="between">
       <formula>-25</formula>
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="13" operator="between">
+    <cfRule type="cellIs" dxfId="11" priority="13" operator="between">
       <formula>75</formula>
       <formula>10000</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="14" operator="between">
+    <cfRule type="cellIs" dxfId="10" priority="14" operator="between">
       <formula>50</formula>
       <formula>75</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="15" operator="between">
+    <cfRule type="cellIs" dxfId="9" priority="15" operator="between">
       <formula>25</formula>
       <formula>50</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="16" operator="between">
+    <cfRule type="cellIs" dxfId="8" priority="16" operator="between">
       <formula>0</formula>
       <formula>25</formula>
     </cfRule>
